--- a/Classistant_REGISTER.xlsx
+++ b/Classistant_REGISTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1880" windowWidth="24220" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="2440" yWindow="1520" windowWidth="24220" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Queries_JSON" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="139">
   <si>
     <t>class:</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>Teacher Constants</t>
+  </si>
+  <si>
+    <t>LOGIN_METADATA</t>
+  </si>
+  <si>
+    <t>Login Metadata table.</t>
+  </si>
+  <si>
+    <t>TEACHER_METADATA</t>
+  </si>
+  <si>
+    <t>Teacher metadata table.</t>
+  </si>
+  <si>
+    <t>STUDENT_METADATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Metadata table. </t>
   </si>
 </sst>
 </file>
@@ -526,11 +544,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,16 +887,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
@@ -887,8 +905,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -897,8 +915,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -907,8 +925,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -917,19 +935,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -938,8 +956,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -948,8 +966,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -958,22 +976,22 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -982,8 +1000,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1010,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -1002,8 +1020,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -1012,8 +1030,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -1022,8 +1040,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -1032,8 +1050,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1042,8 +1060,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -1052,12 +1070,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1068,8 +1086,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1096,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -1088,8 +1106,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -1098,8 +1116,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1108,8 +1126,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" t="s">
         <v>31</v>
       </c>
@@ -1118,8 +1136,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -1128,8 +1146,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
         <v>41</v>
       </c>
@@ -1138,8 +1156,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -1148,8 +1166,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
       <c r="C32" t="s">
         <v>35</v>
       </c>
@@ -1158,8 +1176,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -1168,8 +1186,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -1178,12 +1196,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1194,8 +1212,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" t="s">
         <v>7</v>
       </c>
@@ -1204,8 +1222,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -1214,8 +1232,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -1224,12 +1242,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1240,8 +1258,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1268,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" t="s">
         <v>49</v>
       </c>
@@ -1260,8 +1278,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -1270,8 +1288,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
       <c r="C45" t="s">
         <v>37</v>
       </c>
@@ -1280,8 +1298,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -1290,8 +1308,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
       <c r="C47" t="s">
         <v>56</v>
       </c>
@@ -1318,8 +1336,8 @@
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1329,350 +1347,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="37" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="39" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:2" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
